--- a/Куделин/Модели Excel/All_model.xlsx
+++ b/Куделин/Модели Excel/All_model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\Модели Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\Куделин\Модели Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Bass1" sheetId="3" r:id="rId1"/>
@@ -997,11 +997,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="705273440"/>
-        <c:axId val="705286496"/>
+        <c:axId val="461113488"/>
+        <c:axId val="461124912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="705273440"/>
+        <c:axId val="461113488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1044,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705286496"/>
+        <c:crossAx val="461124912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1052,7 +1052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705286496"/>
+        <c:axId val="461124912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1103,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705273440"/>
+        <c:crossAx val="461113488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1963,11 +1963,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1449734832"/>
-        <c:axId val="1449748432"/>
+        <c:axId val="1611946048"/>
+        <c:axId val="1611958016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449734832"/>
+        <c:axId val="1611946048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2010,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449748432"/>
+        <c:crossAx val="1611958016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2018,7 +2018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449748432"/>
+        <c:axId val="1611958016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +2069,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449734832"/>
+        <c:crossAx val="1611946048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2195,7 +2195,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2452,11 +2451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1449750064"/>
-        <c:axId val="1449746256"/>
+        <c:axId val="1611950400"/>
+        <c:axId val="1611956928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449750064"/>
+        <c:axId val="1611950400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2498,7 +2497,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449746256"/>
+        <c:crossAx val="1611956928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2506,7 +2505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449746256"/>
+        <c:axId val="1611956928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2557,7 +2556,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449750064"/>
+        <c:crossAx val="1611950400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2571,7 +2570,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3033,11 +3031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1449754416"/>
-        <c:axId val="1449737552"/>
+        <c:axId val="1611934624"/>
+        <c:axId val="1611951488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449754416"/>
+        <c:axId val="1611934624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3079,7 +3077,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449737552"/>
+        <c:crossAx val="1611951488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3087,7 +3085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449737552"/>
+        <c:axId val="1611951488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,7 +3136,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449754416"/>
+        <c:crossAx val="1611934624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3152,7 +3150,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3965,11 +3962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1449731024"/>
-        <c:axId val="1449740816"/>
+        <c:axId val="1611936256"/>
+        <c:axId val="1611959648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449731024"/>
+        <c:axId val="1611936256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4012,7 +4009,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449740816"/>
+        <c:crossAx val="1611959648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4020,7 +4017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449740816"/>
+        <c:axId val="1611959648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4071,7 +4068,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449731024"/>
+        <c:crossAx val="1611936256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4635,11 +4632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1449746800"/>
-        <c:axId val="1449752784"/>
+        <c:axId val="1611947136"/>
+        <c:axId val="1611944416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449746800"/>
+        <c:axId val="1611947136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4682,7 +4679,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449752784"/>
+        <c:crossAx val="1611944416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4690,7 +4687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449752784"/>
+        <c:axId val="1611944416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,7 +4738,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449746800"/>
+        <c:crossAx val="1611947136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5298,11 +5295,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1449734288"/>
-        <c:axId val="1449754960"/>
+        <c:axId val="1611934080"/>
+        <c:axId val="1611932448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449734288"/>
+        <c:axId val="1611934080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5345,7 +5342,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449754960"/>
+        <c:crossAx val="1611932448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5353,7 +5350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449754960"/>
+        <c:axId val="1611932448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5404,7 +5401,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449734288"/>
+        <c:crossAx val="1611934080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6227,11 +6224,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1449757680"/>
-        <c:axId val="1449755504"/>
+        <c:axId val="1611931904"/>
+        <c:axId val="1611929728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449757680"/>
+        <c:axId val="1611931904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6274,7 +6271,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449755504"/>
+        <c:crossAx val="1611929728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6282,7 +6279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449755504"/>
+        <c:axId val="1611929728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6333,7 +6330,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449757680"/>
+        <c:crossAx val="1611931904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6890,11 +6887,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1449747344"/>
-        <c:axId val="1449750608"/>
+        <c:axId val="1611938432"/>
+        <c:axId val="1611952032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449747344"/>
+        <c:axId val="1611938432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6937,7 +6934,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449750608"/>
+        <c:crossAx val="1611952032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6945,7 +6942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449750608"/>
+        <c:axId val="1611952032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6996,7 +6993,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449747344"/>
+        <c:crossAx val="1611938432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7819,11 +7816,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1449731568"/>
-        <c:axId val="1449751152"/>
+        <c:axId val="1611936800"/>
+        <c:axId val="1611955840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449731568"/>
+        <c:axId val="1611936800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7866,7 +7863,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449751152"/>
+        <c:crossAx val="1611955840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7874,7 +7871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449751152"/>
+        <c:axId val="1611955840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7925,7 +7922,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449731568"/>
+        <c:crossAx val="1611936800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8752,11 +8749,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="705288672"/>
-        <c:axId val="705289216"/>
+        <c:axId val="461127632"/>
+        <c:axId val="461129808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="705288672"/>
+        <c:axId val="461127632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8799,7 +8796,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705289216"/>
+        <c:crossAx val="461129808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8807,7 +8804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705289216"/>
+        <c:axId val="461129808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8858,7 +8855,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705288672"/>
+        <c:crossAx val="461127632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9211,11 +9208,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="705265280"/>
-        <c:axId val="705265824"/>
+        <c:axId val="461114032"/>
+        <c:axId val="461140688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="705265280"/>
+        <c:axId val="461114032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9257,7 +9254,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705265824"/>
+        <c:crossAx val="461140688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9265,7 +9262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705265824"/>
+        <c:axId val="461140688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9316,7 +9313,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705265280"/>
+        <c:crossAx val="461114032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9759,11 +9756,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="705264192"/>
-        <c:axId val="705258752"/>
+        <c:axId val="461116752"/>
+        <c:axId val="461117296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="705264192"/>
+        <c:axId val="461116752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9805,7 +9802,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705258752"/>
+        <c:crossAx val="461117296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9813,7 +9810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705258752"/>
+        <c:axId val="461117296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9864,7 +9861,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705264192"/>
+        <c:crossAx val="461116752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10217,11 +10214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="705275072"/>
-        <c:axId val="705274528"/>
+        <c:axId val="461141232"/>
+        <c:axId val="461136880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="705275072"/>
+        <c:axId val="461141232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10263,7 +10260,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705274528"/>
+        <c:crossAx val="461136880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10271,7 +10268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705274528"/>
+        <c:axId val="461136880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10322,7 +10319,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705275072"/>
+        <c:crossAx val="461141232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10765,11 +10762,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="705277792"/>
-        <c:axId val="705290304"/>
+        <c:axId val="461137968"/>
+        <c:axId val="459537296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="705277792"/>
+        <c:axId val="461137968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10811,7 +10808,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705290304"/>
+        <c:crossAx val="459537296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10819,7 +10816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705290304"/>
+        <c:axId val="459537296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10870,7 +10867,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705277792"/>
+        <c:crossAx val="461137968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11427,11 +11424,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="705266912"/>
-        <c:axId val="705280512"/>
+        <c:axId val="405167616"/>
+        <c:axId val="1611938976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="705266912"/>
+        <c:axId val="405167616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11474,7 +11471,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705280512"/>
+        <c:crossAx val="1611938976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11482,7 +11479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705280512"/>
+        <c:axId val="1611938976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11533,7 +11530,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705266912"/>
+        <c:crossAx val="405167616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12367,11 +12364,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="704018528"/>
-        <c:axId val="605004832"/>
+        <c:axId val="1611930816"/>
+        <c:axId val="1611957472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="704018528"/>
+        <c:axId val="1611930816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12414,7 +12411,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605004832"/>
+        <c:crossAx val="1611957472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12422,7 +12419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="605004832"/>
+        <c:axId val="1611957472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12473,7 +12470,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704018528"/>
+        <c:crossAx val="1611930816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13037,11 +13034,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1449753328"/>
-        <c:axId val="1449753872"/>
+        <c:axId val="1611943872"/>
+        <c:axId val="1611935712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1449753328"/>
+        <c:axId val="1611943872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13084,7 +13081,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449753872"/>
+        <c:crossAx val="1611935712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13092,7 +13089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449753872"/>
+        <c:axId val="1611935712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13143,7 +13140,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449753328"/>
+        <c:crossAx val="1611943872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23252,7 +23249,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23290,7 +23287,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23471,7 +23468,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23509,7 +23506,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32634,8 +32631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33580,7 +33577,7 @@
         <v>14.658013350719695</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" si="1"/>
+        <f>$I3+(L2*$C5)*(EXP(-EXP($A5-$B5*M4)))</f>
         <v>18.478056120405626</v>
       </c>
       <c r="N7">
@@ -33819,8 +33816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
